--- a/biology/Médecine/Sprue_tropicale/Sprue_tropicale.xlsx
+++ b/biology/Médecine/Sprue_tropicale/Sprue_tropicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sprue tropicale est un syndrome de malabsorption intestinale avec des anomalies histologiques de l’intestin grêle et associant au moins deux éléments biologiques suivants :
 stéatorrhée
@@ -516,7 +528,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'étiologie reste inconnue jusqu'à présent, même si le régime végétarien strict est propice à son déclenchement, notamment chez l'enfant. L’efficacité des antibiotiques est en faveur d’une étiologie infectieuse.
 </t>
@@ -547,7 +561,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La diarrhée est le signe clinique essentiel. Le tableau clinique évolue en trois étapes :
 une diarrhée aiguë, fébrile, avec douleurs abdominales, vomissements, anorexie,
@@ -580,7 +596,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les examens biologiques retrouvent une stéatorrhée et une anémie macrocytaire mégaloblastique.
 L'examen radiologique utile est le transit du grêle qui retrouve un aspect de grêle fonctionnel.
@@ -614,7 +632,9 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous antibiothérapie, l’évolution est rapidement favorable en 10 à 15 jours. Dans le cas contraire, il faut ajouter de la vitamine B12 par voie parentérale.
 </t>
